--- a/measurements/res_feeder_m.xlsx
+++ b/measurements/res_feeder_m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B31582D-1D42-4E56-A824-2770330FD4B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9028328-E273-46EC-86D8-BA59CA2C9A9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,8 +501,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <f>70*0.7/1000</f>
-        <v>4.9000000000000002E-2</v>
+        <v>-4.9000000000000002E-2</v>
       </c>
       <c r="F2">
         <v>1E-3</v>
@@ -553,8 +552,7 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <f>59*0.7/1000</f>
-        <v>4.1299999999999996E-2</v>
+        <v>-4.1299999999999996E-2</v>
       </c>
       <c r="F5">
         <v>1E-3</v>
@@ -588,8 +586,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <f>47*0.7/1000</f>
-        <v>3.2899999999999999E-2</v>
+        <v>-1.6449999999999999E-2</v>
       </c>
       <c r="F7">
         <v>1E-3</v>
@@ -606,8 +603,7 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <f>56*0.7/1000</f>
-        <v>3.9199999999999999E-2</v>
+        <v>-1.9599999999999999E-2</v>
       </c>
       <c r="F8">
         <v>1E-3</v>
@@ -641,8 +637,7 @@
         <v>11</v>
       </c>
       <c r="E10">
-        <f>52*0.7/1000</f>
-        <v>3.6400000000000002E-2</v>
+        <v>-3.6400000000000002E-2</v>
       </c>
       <c r="F10">
         <v>1E-3</v>
@@ -659,8 +654,7 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <f>42*0.7/1000</f>
-        <v>2.9399999999999999E-2</v>
+        <v>-2.9399999999999999E-2</v>
       </c>
       <c r="F11">
         <v>1E-3</v>
@@ -677,8 +671,7 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <f>43*0.7/1000</f>
-        <v>3.0099999999999998E-2</v>
+        <v>-3.0099999999999998E-2</v>
       </c>
       <c r="F12">
         <v>1E-3</v>
@@ -695,8 +688,7 @@
         <v>14</v>
       </c>
       <c r="E13">
-        <f>70*0.7/1000</f>
-        <v>4.9000000000000002E-2</v>
+        <v>-4.9000000000000002E-2</v>
       </c>
       <c r="F13">
         <v>1E-3</v>
@@ -713,8 +705,7 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <f>69*0.7/1000</f>
-        <v>4.8299999999999996E-2</v>
+        <v>-4.8299999999999996E-2</v>
       </c>
       <c r="F14">
         <v>1E-3</v>
@@ -731,8 +722,7 @@
         <v>16</v>
       </c>
       <c r="E15">
-        <f>70*0.7/1000</f>
-        <v>4.9000000000000002E-2</v>
+        <v>-4.9000000000000002E-2</v>
       </c>
       <c r="F15">
         <v>1E-3</v>
@@ -749,8 +739,7 @@
         <v>17</v>
       </c>
       <c r="E16">
-        <f>60*0.7/1000</f>
-        <v>4.2000000000000003E-2</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="F16">
         <v>1E-3</v>
@@ -767,8 +756,7 @@
         <v>18</v>
       </c>
       <c r="E17">
-        <f>60*0.7/1000</f>
-        <v>4.2000000000000003E-2</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="F17">
         <v>1E-3</v>
@@ -785,8 +773,7 @@
         <v>19</v>
       </c>
       <c r="E18">
-        <f>60*0.7/1000</f>
-        <v>4.2000000000000003E-2</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="F18">
         <v>1E-3</v>
@@ -837,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>0.99956957877683417</v>
+        <v>0.99996957877683401</v>
       </c>
       <c r="F21">
         <v>4.0000000000000002E-4</v>
@@ -854,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>0.9996272134207782</v>
+        <v>0.99992721342077795</v>
       </c>
       <c r="F22">
         <v>4.0000000000000002E-4</v>
@@ -871,7 +858,7 @@
         <v>6</v>
       </c>
       <c r="E23">
-        <v>1.0001172277403461</v>
+        <v>1.0001722774035</v>
       </c>
       <c r="F23">
         <v>4.0000000000000002E-4</v>
@@ -888,7 +875,7 @@
         <v>7</v>
       </c>
       <c r="E24">
-        <v>0.99978211773860337</v>
+        <v>0.99998211773860302</v>
       </c>
       <c r="F24">
         <v>4.0000000000000002E-4</v>
@@ -905,7 +892,7 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>1.000338900111488</v>
+        <v>1.0003890011148999</v>
       </c>
       <c r="F25">
         <v>4.0000000000000002E-4</v>
@@ -922,7 +909,7 @@
         <v>9</v>
       </c>
       <c r="E26">
-        <v>1.0006607987694489</v>
+        <v>1.0006079876945</v>
       </c>
       <c r="F26">
         <v>4.0000000000000002E-4</v>
@@ -939,7 +926,7 @@
         <v>10</v>
       </c>
       <c r="E27">
-        <v>1.000549327941533</v>
+        <v>1.0000493279415299</v>
       </c>
       <c r="F27">
         <v>4.0000000000000002E-4</v>
@@ -956,7 +943,7 @@
         <v>11</v>
       </c>
       <c r="E28">
-        <v>1.000237520170409</v>
+        <v>1.0000237520170401</v>
       </c>
       <c r="F28">
         <v>4.0000000000000002E-4</v>
@@ -973,7 +960,7 @@
         <v>12</v>
       </c>
       <c r="E29">
-        <v>1.0000215092464519</v>
+        <v>1.0000150924644999</v>
       </c>
       <c r="F29">
         <v>4.0000000000000002E-4</v>
@@ -990,7 +977,7 @@
         <v>13</v>
       </c>
       <c r="E30">
-        <v>1.0003488317337741</v>
+        <v>1.0000188317337699</v>
       </c>
       <c r="F30">
         <v>4.0000000000000002E-4</v>
@@ -1024,7 +1011,7 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>0.99977771868145293</v>
+        <v>0.99997771868145302</v>
       </c>
       <c r="F32">
         <v>4.0000000000000002E-4</v>
@@ -1041,7 +1028,7 @@
         <v>16</v>
       </c>
       <c r="E33">
-        <v>1.0004016320111311</v>
+        <v>1.00000163201113</v>
       </c>
       <c r="F33">
         <v>4.0000000000000002E-4</v>
@@ -1058,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>0.99987497883425036</v>
+        <v>0.99997497883425002</v>
       </c>
       <c r="F34">
         <v>4.0000000000000002E-4</v>
@@ -1075,7 +1062,7 @@
         <v>18</v>
       </c>
       <c r="E35">
-        <v>1.000453477955402</v>
+        <v>1.0000534779554</v>
       </c>
       <c r="F35">
         <v>4.0000000000000002E-4</v>
@@ -1092,7 +1079,7 @@
         <v>19</v>
       </c>
       <c r="E36">
-        <v>0.9997201244174504</v>
+        <v>0.99992012441745004</v>
       </c>
       <c r="F36">
         <v>4.0000000000000002E-4</v>

--- a/measurements/res_feeder_m.xlsx
+++ b/measurements/res_feeder_m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9028328-E273-46EC-86D8-BA59CA2C9A9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6E6EE8-B15F-4630-87DA-183896DE53E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="G2" sqref="G2:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +501,8 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>-4.9000000000000002E-2</v>
+        <f>-(70*0.0007+0.007*14)</f>
+        <v>-0.14700000000000002</v>
       </c>
       <c r="F2">
         <v>1E-3</v>
@@ -518,7 +519,8 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <f t="shared" ref="E3:E18" si="0">-(70*0.0007+0.007*14)</f>
+        <v>-0.14700000000000002</v>
       </c>
       <c r="F3">
         <v>1E-3</v>
@@ -535,7 +537,8 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-0.14700000000000002</v>
       </c>
       <c r="F4">
         <v>1E-3</v>
@@ -552,7 +555,8 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <v>-4.1299999999999996E-2</v>
+        <f>-(59*0.0007+0.007*12)</f>
+        <v>-0.12529999999999999</v>
       </c>
       <c r="F5">
         <v>1E-3</v>
@@ -569,7 +573,8 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-0.14700000000000002</v>
       </c>
       <c r="F6">
         <v>1E-3</v>
@@ -586,7 +591,8 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>-1.6449999999999999E-2</v>
+        <f>-(24*0.0007+0.007*5)</f>
+        <v>-5.1799999999999999E-2</v>
       </c>
       <c r="F7">
         <v>1E-3</v>
@@ -603,7 +609,8 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <v>-1.9599999999999999E-2</v>
+        <f>-(28*0.0007+0.007*6)</f>
+        <v>-6.1600000000000002E-2</v>
       </c>
       <c r="F8">
         <v>1E-3</v>
@@ -620,7 +627,8 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-0.14700000000000002</v>
       </c>
       <c r="F9">
         <v>1E-3</v>
@@ -637,7 +645,8 @@
         <v>11</v>
       </c>
       <c r="E10">
-        <v>-3.6400000000000002E-2</v>
+        <f>-(52*0.0007+0.007*10)</f>
+        <v>-0.10640000000000001</v>
       </c>
       <c r="F10">
         <v>1E-3</v>
@@ -654,7 +663,8 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <v>-2.9399999999999999E-2</v>
+        <f>-(42*0.0007+0.007*8)</f>
+        <v>-8.5400000000000004E-2</v>
       </c>
       <c r="F11">
         <v>1E-3</v>
@@ -671,7 +681,8 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <v>-3.0099999999999998E-2</v>
+        <f>-(43*0.0007+0.007*9)</f>
+        <v>-9.3100000000000002E-2</v>
       </c>
       <c r="F12">
         <v>1E-3</v>
@@ -688,7 +699,8 @@
         <v>14</v>
       </c>
       <c r="E13">
-        <v>-4.9000000000000002E-2</v>
+        <f>-(70*0.0007+0.007*14)</f>
+        <v>-0.14700000000000002</v>
       </c>
       <c r="F13">
         <v>1E-3</v>
@@ -705,7 +717,8 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <v>-4.8299999999999996E-2</v>
+        <f>-(69*0.0007+0.007*14)</f>
+        <v>-0.14630000000000001</v>
       </c>
       <c r="F14">
         <v>1E-3</v>
@@ -722,7 +735,8 @@
         <v>16</v>
       </c>
       <c r="E15">
-        <v>-4.9000000000000002E-2</v>
+        <f>-(70*0.0007+0.007*14)</f>
+        <v>-0.14700000000000002</v>
       </c>
       <c r="F15">
         <v>1E-3</v>
@@ -739,7 +753,8 @@
         <v>17</v>
       </c>
       <c r="E16">
-        <v>-4.2000000000000003E-2</v>
+        <f>-(60*0.0007+0.007*12)</f>
+        <v>-0.126</v>
       </c>
       <c r="F16">
         <v>1E-3</v>
@@ -756,7 +771,8 @@
         <v>18</v>
       </c>
       <c r="E17">
-        <v>-4.2000000000000003E-2</v>
+        <f>-(60*0.0007+0.007*12)</f>
+        <v>-0.126</v>
       </c>
       <c r="F17">
         <v>1E-3</v>
@@ -773,7 +789,8 @@
         <v>19</v>
       </c>
       <c r="E18">
-        <v>-4.2000000000000003E-2</v>
+        <f>-(60*0.0007+0.007*12)</f>
+        <v>-0.126</v>
       </c>
       <c r="F18">
         <v>1E-3</v>

--- a/measurements/res_feeder_m.xlsx
+++ b/measurements/res_feeder_m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6E6EE8-B15F-4630-87DA-183896DE53E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607E088A-605A-4DB2-BCFB-EC5567838FEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I22"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +519,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E18" si="0">-(70*0.0007+0.007*14)</f>
+        <f t="shared" ref="E3:E9" si="0">-(70*0.0007+0.007*14)</f>
         <v>-0.14700000000000002</v>
       </c>
       <c r="F3">
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>1.000450150037181</v>
+        <v>1.00000450150037</v>
       </c>
       <c r="F20">
         <v>4.0000000000000002E-4</v>
@@ -841,7 +841,7 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>0.99996957877683401</v>
+        <v>0.99999695787768295</v>
       </c>
       <c r="F21">
         <v>4.0000000000000002E-4</v>
@@ -858,7 +858,7 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>0.99992721342077795</v>
+        <v>0.99999272134207695</v>
       </c>
       <c r="F22">
         <v>4.0000000000000002E-4</v>
@@ -875,7 +875,7 @@
         <v>6</v>
       </c>
       <c r="E23">
-        <v>1.0001722774035</v>
+        <v>1.0000017227740301</v>
       </c>
       <c r="F23">
         <v>4.0000000000000002E-4</v>
@@ -892,7 +892,7 @@
         <v>7</v>
       </c>
       <c r="E24">
-        <v>0.99998211773860302</v>
+        <v>0.99999821177385995</v>
       </c>
       <c r="F24">
         <v>4.0000000000000002E-4</v>
@@ -909,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>1.0003890011148999</v>
+        <v>1.0000038900111401</v>
       </c>
       <c r="F25">
         <v>4.0000000000000002E-4</v>
@@ -926,7 +926,7 @@
         <v>9</v>
       </c>
       <c r="E26">
-        <v>1.0006079876945</v>
+        <v>1.0000060798769399</v>
       </c>
       <c r="F26">
         <v>4.0000000000000002E-4</v>
@@ -943,7 +943,7 @@
         <v>10</v>
       </c>
       <c r="E27">
-        <v>1.0000493279415299</v>
+        <v>1.00000493279415</v>
       </c>
       <c r="F27">
         <v>4.0000000000000002E-4</v>
@@ -960,7 +960,7 @@
         <v>11</v>
       </c>
       <c r="E28">
-        <v>1.0000237520170401</v>
+        <v>1.0000023752017</v>
       </c>
       <c r="F28">
         <v>4.0000000000000002E-4</v>
@@ -977,7 +977,7 @@
         <v>12</v>
       </c>
       <c r="E29">
-        <v>1.0000150924644999</v>
+        <v>1.00000150924645</v>
       </c>
       <c r="F29">
         <v>4.0000000000000002E-4</v>
@@ -994,7 +994,7 @@
         <v>13</v>
       </c>
       <c r="E30">
-        <v>1.0000188317337699</v>
+        <v>1.0000018831733699</v>
       </c>
       <c r="F30">
         <v>4.0000000000000002E-4</v>
@@ -1011,7 +1011,7 @@
         <v>14</v>
       </c>
       <c r="E31">
-        <v>0.99997746168457413</v>
+        <v>0.99999774616845705</v>
       </c>
       <c r="F31">
         <v>4.0000000000000002E-4</v>
@@ -1028,7 +1028,7 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>0.99997771868145302</v>
+        <v>0.99999777186814498</v>
       </c>
       <c r="F32">
         <v>4.0000000000000002E-4</v>
@@ -1062,7 +1062,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>0.99997497883425002</v>
+        <v>0.99999749788342496</v>
       </c>
       <c r="F34">
         <v>4.0000000000000002E-4</v>
@@ -1079,7 +1079,7 @@
         <v>18</v>
       </c>
       <c r="E35">
-        <v>1.0000534779554</v>
+        <v>1.00000534779554</v>
       </c>
       <c r="F35">
         <v>4.0000000000000002E-4</v>
@@ -1096,7 +1096,7 @@
         <v>19</v>
       </c>
       <c r="E36">
-        <v>0.99992012441745004</v>
+        <v>0.99999201244174496</v>
       </c>
       <c r="F36">
         <v>4.0000000000000002E-4</v>

--- a/measurements/res_feeder_m.xlsx
+++ b/measurements/res_feeder_m.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607E088A-605A-4DB2-BCFB-EC5567838FEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF30AB9C-0E7A-494F-85A7-14B8E5F959B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,8 +501,8 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <f>-(70*0.0007+0.007*14)</f>
-        <v>-0.14700000000000002</v>
+        <f>-(90*0.0007+0.007*18)</f>
+        <v>-0.189</v>
       </c>
       <c r="F2">
         <v>1E-3</v>
@@ -519,8 +519,8 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="0">-(70*0.0007+0.007*14)</f>
-        <v>-0.14700000000000002</v>
+        <f>-(90*0.0007+0.007*18)</f>
+        <v>-0.189</v>
       </c>
       <c r="F3">
         <v>1E-3</v>
@@ -537,8 +537,8 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>-0.14700000000000002</v>
+        <f>-(90*0.0007+0.007*18)</f>
+        <v>-0.189</v>
       </c>
       <c r="F4">
         <v>1E-3</v>
@@ -555,8 +555,8 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <f>-(59*0.0007+0.007*12)</f>
-        <v>-0.12529999999999999</v>
+        <f>-(79*0.0007+0.007*16)</f>
+        <v>-0.1673</v>
       </c>
       <c r="F5">
         <v>1E-3</v>
@@ -573,8 +573,8 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>-0.14700000000000002</v>
+        <f>-(90*0.0007+0.007*18)</f>
+        <v>-0.189</v>
       </c>
       <c r="F6">
         <v>1E-3</v>
@@ -591,8 +591,8 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <f>-(24*0.0007+0.007*5)</f>
-        <v>-5.1799999999999999E-2</v>
+        <f>-(54*0.0007+0.007*11)</f>
+        <v>-0.1148</v>
       </c>
       <c r="F7">
         <v>1E-3</v>
@@ -609,8 +609,8 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <f>-(28*0.0007+0.007*6)</f>
-        <v>-6.1600000000000002E-2</v>
+        <f>-(48*0.0007+0.007*10)</f>
+        <v>-0.1036</v>
       </c>
       <c r="F8">
         <v>1E-3</v>
@@ -627,7 +627,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:E9" si="0">-(70*0.0007+0.007*14)</f>
         <v>-0.14700000000000002</v>
       </c>
       <c r="F9">
@@ -663,8 +663,8 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <f>-(42*0.0007+0.007*8)</f>
-        <v>-8.5400000000000004E-2</v>
+        <f>-(62*0.0007+0.007*12)</f>
+        <v>-0.12740000000000001</v>
       </c>
       <c r="F11">
         <v>1E-3</v>
@@ -681,8 +681,8 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <f>-(43*0.0007+0.007*9)</f>
-        <v>-9.3100000000000002E-2</v>
+        <f>-(50*0.0007+0.007*10)</f>
+        <v>-0.10500000000000001</v>
       </c>
       <c r="F12">
         <v>1E-3</v>
@@ -735,8 +735,8 @@
         <v>16</v>
       </c>
       <c r="E15">
-        <f>-(70*0.0007+0.007*14)</f>
-        <v>-0.14700000000000002</v>
+        <f>-(80*0.0007+0.007*16)</f>
+        <v>-0.16800000000000001</v>
       </c>
       <c r="F15">
         <v>1E-3</v>
@@ -753,8 +753,8 @@
         <v>17</v>
       </c>
       <c r="E16">
-        <f>-(60*0.0007+0.007*12)</f>
-        <v>-0.126</v>
+        <f>-(66*0.0007+0.007*13)</f>
+        <v>-0.13719999999999999</v>
       </c>
       <c r="F16">
         <v>1E-3</v>
@@ -789,8 +789,8 @@
         <v>19</v>
       </c>
       <c r="E18">
-        <f>-(60*0.0007+0.007*12)</f>
-        <v>-0.126</v>
+        <f>-(64*0.0007+0.007*13)</f>
+        <v>-0.1358</v>
       </c>
       <c r="F18">
         <v>1E-3</v>
@@ -810,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>1.00000450150037</v>
+        <v>1.00000150150037</v>
       </c>
       <c r="F20">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
         <v>0.99999695787768295</v>
       </c>
       <c r="F21">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
         <v>0.99999272134207695</v>
       </c>
       <c r="F22">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -878,7 +878,7 @@
         <v>1.0000017227740301</v>
       </c>
       <c r="F23">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>0.99999821177385995</v>
       </c>
       <c r="F24">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
         <v>1.0000038900111401</v>
       </c>
       <c r="F25">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -929,7 +929,7 @@
         <v>1.0000060798769399</v>
       </c>
       <c r="F26">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -946,7 +946,7 @@
         <v>1.00000493279415</v>
       </c>
       <c r="F27">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -963,7 +963,7 @@
         <v>1.0000023752017</v>
       </c>
       <c r="F28">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -980,7 +980,7 @@
         <v>1.00000150924645</v>
       </c>
       <c r="F29">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>1.0000018831733699</v>
       </c>
       <c r="F30">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
         <v>0.99999774616845705</v>
       </c>
       <c r="F31">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -1031,7 +1031,7 @@
         <v>0.99999777186814498</v>
       </c>
       <c r="F32">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
         <v>1.00000163201113</v>
       </c>
       <c r="F33">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
         <v>0.99999749788342496</v>
       </c>
       <c r="F34">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -1082,7 +1082,7 @@
         <v>1.00000534779554</v>
       </c>
       <c r="F35">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -1099,7 +1099,7 @@
         <v>0.99999201244174496</v>
       </c>
       <c r="F36">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
   </sheetData>

--- a/measurements/res_feeder_m.xlsx
+++ b/measurements/res_feeder_m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF30AB9C-0E7A-494F-85A7-14B8E5F959B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E19631-26DE-4642-96C7-2BC70ED7A9F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>bus</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,8 +504,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <f>-(90*0.0007+0.007*18)</f>
-        <v>-0.189</v>
+        <v>-0.12670000000000001</v>
       </c>
       <c r="F2">
         <v>1E-3</v>
@@ -519,8 +521,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <f>-(90*0.0007+0.007*18)</f>
-        <v>-0.189</v>
+        <v>-0.1701</v>
       </c>
       <c r="F3">
         <v>1E-3</v>
@@ -537,8 +538,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <f>-(90*0.0007+0.007*18)</f>
-        <v>-0.189</v>
+        <v>-0.15820000000000001</v>
       </c>
       <c r="F4">
         <v>1E-3</v>
@@ -555,8 +555,7 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <f>-(79*0.0007+0.007*16)</f>
-        <v>-0.1673</v>
+        <v>-0.17849999999999999</v>
       </c>
       <c r="F5">
         <v>1E-3</v>
@@ -573,8 +572,7 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <f>-(90*0.0007+0.007*18)</f>
-        <v>-0.189</v>
+        <v>-0.1694</v>
       </c>
       <c r="F6">
         <v>1E-3</v>
@@ -591,8 +589,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <f>-(54*0.0007+0.007*11)</f>
-        <v>-0.1148</v>
+        <v>-0.12670000000000001</v>
       </c>
       <c r="F7">
         <v>1E-3</v>
@@ -609,8 +606,7 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <f>-(48*0.0007+0.007*10)</f>
-        <v>-0.1036</v>
+        <v>-0.1484</v>
       </c>
       <c r="F8">
         <v>1E-3</v>
@@ -627,8 +623,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E3:E9" si="0">-(70*0.0007+0.007*14)</f>
-        <v>-0.14700000000000002</v>
+        <v>-0.14979999999999999</v>
       </c>
       <c r="F9">
         <v>1E-3</v>
@@ -645,8 +640,7 @@
         <v>11</v>
       </c>
       <c r="E10">
-        <f>-(52*0.0007+0.007*10)</f>
-        <v>-0.10640000000000001</v>
+        <v>-0.1603</v>
       </c>
       <c r="F10">
         <v>1E-3</v>
@@ -663,8 +657,7 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <f>-(62*0.0007+0.007*12)</f>
-        <v>-0.12740000000000001</v>
+        <v>-0.1288</v>
       </c>
       <c r="F11">
         <v>1E-3</v>
@@ -681,8 +674,7 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <f>-(50*0.0007+0.007*10)</f>
-        <v>-0.10500000000000001</v>
+        <v>-0.12809999999999999</v>
       </c>
       <c r="F12">
         <v>1E-3</v>
@@ -699,8 +691,7 @@
         <v>14</v>
       </c>
       <c r="E13">
-        <f>-(70*0.0007+0.007*14)</f>
-        <v>-0.14700000000000002</v>
+        <v>-0.1701</v>
       </c>
       <c r="F13">
         <v>1E-3</v>
@@ -717,8 +708,7 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <f>-(69*0.0007+0.007*14)</f>
-        <v>-0.14630000000000001</v>
+        <v>-0.1176</v>
       </c>
       <c r="F14">
         <v>1E-3</v>
@@ -735,8 +725,7 @@
         <v>16</v>
       </c>
       <c r="E15">
-        <f>-(80*0.0007+0.007*16)</f>
-        <v>-0.16800000000000001</v>
+        <v>-0.12740000000000001</v>
       </c>
       <c r="F15">
         <v>1E-3</v>
@@ -753,8 +742,7 @@
         <v>17</v>
       </c>
       <c r="E16">
-        <f>-(66*0.0007+0.007*13)</f>
-        <v>-0.13719999999999999</v>
+        <v>-0.18060000000000001</v>
       </c>
       <c r="F16">
         <v>1E-3</v>
@@ -771,8 +759,7 @@
         <v>18</v>
       </c>
       <c r="E17">
-        <f>-(60*0.0007+0.007*12)</f>
-        <v>-0.126</v>
+        <v>-0.1792</v>
       </c>
       <c r="F17">
         <v>1E-3</v>
@@ -789,8 +776,7 @@
         <v>19</v>
       </c>
       <c r="E18">
-        <f>-(64*0.0007+0.007*13)</f>
-        <v>-0.1358</v>
+        <v>-0.11549999999999999</v>
       </c>
       <c r="F18">
         <v>1E-3</v>
@@ -1100,6 +1086,312 @@
       </c>
       <c r="F36">
         <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>0.1</v>
+      </c>
+      <c r="F37">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>0.1</v>
+      </c>
+      <c r="F38">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>0.1</v>
+      </c>
+      <c r="F39">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>0.1</v>
+      </c>
+      <c r="F40">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>0.1</v>
+      </c>
+      <c r="F41">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>0.1</v>
+      </c>
+      <c r="F42">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>0.1</v>
+      </c>
+      <c r="F43">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>0.1</v>
+      </c>
+      <c r="F44">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>0.1</v>
+      </c>
+      <c r="F45">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>0.1</v>
+      </c>
+      <c r="F46">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>0.1</v>
+      </c>
+      <c r="F47">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>13</v>
+      </c>
+      <c r="E48">
+        <v>0.1</v>
+      </c>
+      <c r="F48">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>14</v>
+      </c>
+      <c r="E49">
+        <v>0.1</v>
+      </c>
+      <c r="F49">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+      <c r="E50">
+        <v>0.1</v>
+      </c>
+      <c r="F50">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>16</v>
+      </c>
+      <c r="E51">
+        <v>0.1</v>
+      </c>
+      <c r="F51">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>17</v>
+      </c>
+      <c r="E52">
+        <v>0.1</v>
+      </c>
+      <c r="F52">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>18</v>
+      </c>
+      <c r="E53">
+        <v>0.1</v>
+      </c>
+      <c r="F53">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>19</v>
+      </c>
+      <c r="E54">
+        <v>0.1</v>
+      </c>
+      <c r="F54">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
